--- a/Backend/financeReportFiles/Sep2023.xlsx
+++ b/Backend/financeReportFiles/Sep2023.xlsx
@@ -1726,12 +1726,14 @@
       <c r="B70" s="10" t="n"/>
       <c r="C70" s="19" t="inlineStr">
         <is>
-          <t>3     Agent Seats</t>
+          <t>3     Agent Seats @$-16.7 per agent/month</t>
         </is>
       </c>
       <c r="D70" s="19" t="n"/>
       <c r="E70" s="19" t="n"/>
-      <c r="F70" s="19" t="n"/>
+      <c r="F70" s="20" t="n">
+        <v>-50</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="10" t="n"/>
@@ -1900,7 +1902,7 @@
         </is>
       </c>
       <c r="F80" s="16" t="n">
-        <v>308.16</v>
+        <v>258.16</v>
       </c>
     </row>
     <row r="81">
@@ -5122,12 +5124,14 @@
       <c r="B272" s="10" t="n"/>
       <c r="C272" s="19" t="inlineStr">
         <is>
-          <t>1     Agent Seats</t>
+          <t>1     Agent Seats @$-25.0 per agent/month</t>
         </is>
       </c>
       <c r="D272" s="19" t="n"/>
       <c r="E272" s="19" t="n"/>
-      <c r="F272" s="19" t="n"/>
+      <c r="F272" s="20" t="n">
+        <v>-25</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="10" t="n"/>
@@ -5296,7 +5300,7 @@
         </is>
       </c>
       <c r="F282" s="16" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283">
@@ -12888,7 +12892,7 @@
       <c r="D729" s="23" t="n"/>
       <c r="E729" s="23" t="n"/>
       <c r="F729" s="24" t="n">
-        <v>21489.36</v>
+        <v>21414.36</v>
       </c>
     </row>
     <row r="730">
